--- a/scene_cat_exp_2023.2/input_files/20_scenecat_memory_bedrooms_2.xlsx
+++ b/scene_cat_exp_2023.2/input_files/20_scenecat_memory_bedrooms_2.xlsx
@@ -464,7 +464,7 @@
         </is>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -473,7 +473,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>217</v>
+        <v>297</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -482,35 +482,40 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>target</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>stimuli/img_5yhyk.png</t>
+          <t>stimuli/img_rych7.png</t>
         </is>
       </c>
       <c r="M2">
-        <v>46.375</v>
+        <v>30.4468085106383</v>
       </c>
       <c r="N2">
-        <v>31.325</v>
+        <v>23.4468085106383</v>
       </c>
       <c r="O2">
-        <v>38.85</v>
+        <v>26.9468085106383</v>
       </c>
       <c r="P2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -532,7 +537,7 @@
         </is>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -541,7 +546,7 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <v>218</v>
+        <v>298</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -550,7 +555,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -565,29 +570,29 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>stimuli/img_0eflx.png</t>
+          <t>stimuli/img_7lz7m.png</t>
         </is>
       </c>
       <c r="M3">
-        <v>76.05128205128206</v>
+        <v>51.5531914893617</v>
       </c>
       <c r="N3">
-        <v>53.53846153846154</v>
+        <v>32.87234042553192</v>
       </c>
       <c r="O3">
-        <v>64.7948717948718</v>
+        <v>42.21276595744681</v>
       </c>
       <c r="P3">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="Q3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="S3">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -600,7 +605,7 @@
         </is>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -609,7 +614,7 @@
         <v>3</v>
       </c>
       <c r="F4">
-        <v>219</v>
+        <v>299</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -618,7 +623,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -638,20 +643,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>stimuli/img_x0u5z.png</t>
+          <t>stimuli/img_vgh2g.png</t>
         </is>
       </c>
       <c r="M4">
-        <v>92</v>
+        <v>93.81395348837209</v>
       </c>
       <c r="N4">
-        <v>78.16216216216216</v>
+        <v>78.27906976744185</v>
       </c>
       <c r="O4">
-        <v>85.08108108108108</v>
+        <v>86.04651162790697</v>
       </c>
       <c r="P4">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="Q4">
         <v>10</v>
@@ -673,7 +678,7 @@
         </is>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -682,7 +687,7 @@
         <v>4</v>
       </c>
       <c r="F5">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -691,49 +696,44 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>bedrooms</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>target</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>stimuli/img_2js6m.png</t>
+          <t>stimuli/img_3jnt7.png</t>
         </is>
       </c>
       <c r="M5">
-        <v>40.02777777777778</v>
+        <v>49.52272727272727</v>
       </c>
       <c r="N5">
-        <v>20.88888888888889</v>
+        <v>35.25</v>
       </c>
       <c r="O5">
-        <v>30.45833333333334</v>
+        <v>42.38636363636364</v>
       </c>
       <c r="P5">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -755,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="F6">
-        <v>221</v>
+        <v>301</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -764,44 +764,49 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>target</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>stimuli/img_6ddrx.png</t>
+          <t>stimuli/img_syam3.png</t>
         </is>
       </c>
       <c r="M6">
-        <v>82.2</v>
+        <v>41.32432432432432</v>
       </c>
       <c r="N6">
-        <v>63.68571428571428</v>
+        <v>26.2972972972973</v>
       </c>
       <c r="O6">
-        <v>72.94285714285715</v>
+        <v>33.81081081081081</v>
       </c>
       <c r="P6">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q6">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="R6">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S6">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -814,7 +819,7 @@
         </is>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -823,7 +828,7 @@
         <v>6</v>
       </c>
       <c r="F7">
-        <v>222</v>
+        <v>302</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -832,7 +837,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -852,29 +857,29 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>stimuli/img_v8dra.png</t>
+          <t>stimuli/img_of8d6.png</t>
         </is>
       </c>
       <c r="M7">
-        <v>61.77272727272727</v>
+        <v>26.04878048780488</v>
       </c>
       <c r="N7">
-        <v>38.79545454545455</v>
+        <v>19.14634146341463</v>
       </c>
       <c r="O7">
-        <v>50.28409090909091</v>
+        <v>22.59756097560975</v>
       </c>
       <c r="P7">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S7">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -887,7 +892,7 @@
         </is>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -896,7 +901,7 @@
         <v>7</v>
       </c>
       <c r="F8">
-        <v>223</v>
+        <v>303</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -905,49 +910,44 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>bedrooms</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>target</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>stimuli/img_oou46.png</t>
+          <t>stimuli/img_bf8nx.png</t>
         </is>
       </c>
       <c r="M8">
-        <v>75.70270270270271</v>
+        <v>86.63414634146342</v>
       </c>
       <c r="N8">
-        <v>54.86486486486486</v>
+        <v>66.63414634146342</v>
       </c>
       <c r="O8">
-        <v>65.28378378378379</v>
+        <v>76.63414634146342</v>
       </c>
       <c r="P8">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R8">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="S8">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -969,7 +969,7 @@
         <v>8</v>
       </c>
       <c r="F9">
-        <v>224</v>
+        <v>304</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -978,7 +978,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -998,29 +998,29 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>stimuli/img_rvssl.png</t>
+          <t>stimuli/img_j4ttn.png</t>
         </is>
       </c>
       <c r="M9">
-        <v>74.25</v>
+        <v>12.61904761904762</v>
       </c>
       <c r="N9">
-        <v>54.33333333333334</v>
+        <v>11.42857142857143</v>
       </c>
       <c r="O9">
-        <v>64.29166666666667</v>
+        <v>12.02380952380952</v>
       </c>
       <c r="P9">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S9">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1033,7 +1033,7 @@
         </is>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -1042,7 +1042,7 @@
         <v>9</v>
       </c>
       <c r="F10">
-        <v>225</v>
+        <v>305</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1051,7 +1051,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1071,29 +1071,29 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>stimuli/img_uxxo0.png</t>
+          <t>stimuli/img_xr3up.png</t>
         </is>
       </c>
       <c r="M10">
-        <v>71.74418604651163</v>
+        <v>76.24444444444444</v>
       </c>
       <c r="N10">
-        <v>48.44186046511628</v>
+        <v>55.88888888888889</v>
       </c>
       <c r="O10">
-        <v>60.09302325581395</v>
+        <v>66.06666666666666</v>
       </c>
       <c r="P10">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Q10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S10">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="F11">
-        <v>226</v>
+        <v>306</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1124,44 +1124,49 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>target</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>stimuli/img_i7vab.png</t>
+          <t>stimuli/img_rru0v.png</t>
         </is>
       </c>
       <c r="M11">
-        <v>86.40000000000001</v>
+        <v>56.45238095238095</v>
       </c>
       <c r="N11">
-        <v>67.8</v>
+        <v>39.42857142857143</v>
       </c>
       <c r="O11">
-        <v>77.09999999999999</v>
+        <v>47.94047619047619</v>
       </c>
       <c r="P11">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="Q11">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="R11">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="S11">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -1174,7 +1179,7 @@
         </is>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -1183,7 +1188,7 @@
         <v>11</v>
       </c>
       <c r="F12">
-        <v>227</v>
+        <v>307</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1202,7 +1207,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>stimuli/catch_14.jpg</t>
+          <t>stimuli/catch_17.jpg</t>
         </is>
       </c>
     </row>
@@ -1216,7 +1221,7 @@
         </is>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -1225,7 +1230,7 @@
         <v>12</v>
       </c>
       <c r="F13">
-        <v>228</v>
+        <v>308</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1234,7 +1239,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1254,29 +1259,29 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>stimuli/img_bj2gr.png</t>
+          <t>stimuli/img_vh7v8.png</t>
         </is>
       </c>
       <c r="M13">
-        <v>65.25</v>
+        <v>78.70454545454545</v>
       </c>
       <c r="N13">
-        <v>44.8</v>
+        <v>59.63636363636363</v>
       </c>
       <c r="O13">
-        <v>55.025</v>
+        <v>69.17045454545455</v>
       </c>
       <c r="P13">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R13">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S13">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -1289,7 +1294,7 @@
         </is>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -1298,7 +1303,7 @@
         <v>13</v>
       </c>
       <c r="F14">
-        <v>229</v>
+        <v>309</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1307,7 +1312,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1327,20 +1332,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>stimuli/img_th7xh.png</t>
+          <t>stimuli/img_9oofc.png</t>
         </is>
       </c>
       <c r="M14">
-        <v>82.35897435897436</v>
+        <v>82.47619047619048</v>
       </c>
       <c r="N14">
-        <v>65.53846153846153</v>
+        <v>65.5</v>
       </c>
       <c r="O14">
-        <v>73.94871794871796</v>
+        <v>73.98809523809524</v>
       </c>
       <c r="P14">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Q14">
         <v>8</v>
@@ -1362,7 +1367,7 @@
         </is>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -1371,7 +1376,7 @@
         <v>14</v>
       </c>
       <c r="F15">
-        <v>230</v>
+        <v>310</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1380,49 +1385,44 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>bedrooms</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>target</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>stimuli/img_wyctg.png</t>
+          <t>stimuli/img_pna7l.png</t>
         </is>
       </c>
       <c r="M15">
-        <v>33.44736842105263</v>
+        <v>85.53333333333333</v>
       </c>
       <c r="N15">
-        <v>11.39473684210526</v>
+        <v>67.97777777777777</v>
       </c>
       <c r="O15">
-        <v>22.42105263157895</v>
+        <v>76.75555555555556</v>
       </c>
       <c r="P15">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="Q15">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="R15">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="S15">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -1435,7 +1435,7 @@
         </is>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -1444,7 +1444,7 @@
         <v>15</v>
       </c>
       <c r="F16">
-        <v>231</v>
+        <v>311</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1473,29 +1473,29 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>stimuli/img_a9acb.png</t>
+          <t>stimuli/img_tn8ys.png</t>
         </is>
       </c>
       <c r="M16">
-        <v>77.11428571428571</v>
+        <v>86.70454545454545</v>
       </c>
       <c r="N16">
-        <v>58.42857142857143</v>
+        <v>72.40909090909091</v>
       </c>
       <c r="O16">
-        <v>67.77142857142857</v>
+        <v>79.55681818181819</v>
       </c>
       <c r="P16">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="Q16">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="R16">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="S16">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -1508,7 +1508,7 @@
         </is>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -1517,7 +1517,7 @@
         <v>16</v>
       </c>
       <c r="F17">
-        <v>232</v>
+        <v>312</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1526,7 +1526,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1546,29 +1546,29 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>stimuli/img_fqgem.png</t>
+          <t>stimuli/img_rg4in.png</t>
         </is>
       </c>
       <c r="M17">
-        <v>80.75</v>
+        <v>49.3695652173913</v>
       </c>
       <c r="N17">
-        <v>61.475</v>
+        <v>30.21739130434782</v>
       </c>
       <c r="O17">
-        <v>71.1125</v>
+        <v>39.79347826086956</v>
       </c>
       <c r="P17">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="Q17">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="R17">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="S17">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -1581,7 +1581,7 @@
         </is>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -1590,7 +1590,7 @@
         <v>17</v>
       </c>
       <c r="F18">
-        <v>233</v>
+        <v>313</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1599,44 +1599,49 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>target</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>stimuli/img_zgg62.png</t>
+          <t>stimuli/img_swq34.png</t>
         </is>
       </c>
       <c r="M18">
-        <v>82.18421052631579</v>
+        <v>64.11363636363636</v>
       </c>
       <c r="N18">
-        <v>63.52631578947368</v>
+        <v>43.04545454545455</v>
       </c>
       <c r="O18">
-        <v>72.85526315789474</v>
+        <v>53.57954545454545</v>
       </c>
       <c r="P18">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="R18">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="S18">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -1649,7 +1654,7 @@
         </is>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -1658,7 +1663,7 @@
         <v>18</v>
       </c>
       <c r="F19">
-        <v>234</v>
+        <v>314</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1667,7 +1672,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1687,29 +1692,29 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>stimuli/img_qgbyn.png</t>
+          <t>stimuli/img_zxvl3.png</t>
         </is>
       </c>
       <c r="M19">
-        <v>65.08108108108108</v>
+        <v>68.78260869565217</v>
       </c>
       <c r="N19">
-        <v>40.10810810810811</v>
+        <v>47.56521739130435</v>
       </c>
       <c r="O19">
-        <v>52.5945945945946</v>
+        <v>58.17391304347827</v>
       </c>
       <c r="P19">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="Q19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S19">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
@@ -1722,7 +1727,7 @@
         </is>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -1731,7 +1736,7 @@
         <v>19</v>
       </c>
       <c r="F20">
-        <v>235</v>
+        <v>315</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1740,40 +1745,35 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>bedrooms</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>target</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>stimuli/img_2pk6v.png</t>
+          <t>stimuli/img_pdzf1.png</t>
         </is>
       </c>
       <c r="M20">
-        <v>85.08108108108108</v>
+        <v>86.23913043478261</v>
       </c>
       <c r="N20">
-        <v>66.16216216216216</v>
+        <v>67.17391304347827</v>
       </c>
       <c r="O20">
-        <v>75.62162162162161</v>
+        <v>76.70652173913044</v>
       </c>
       <c r="P20">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="Q20">
         <v>9</v>
@@ -1795,7 +1795,7 @@
         </is>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -1804,7 +1804,7 @@
         <v>20</v>
       </c>
       <c r="F21">
-        <v>236</v>
+        <v>316</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1813,49 +1813,44 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>bedrooms</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>target</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>stimuli/img_okvvw.png</t>
+          <t>stimuli/img_qdln8.png</t>
         </is>
       </c>
       <c r="M21">
-        <v>50.58333333333334</v>
+        <v>85.51162790697674</v>
       </c>
       <c r="N21">
-        <v>32.11111111111111</v>
+        <v>67.86046511627907</v>
       </c>
       <c r="O21">
-        <v>41.34722222222223</v>
+        <v>76.68604651162791</v>
       </c>
       <c r="P21">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="Q21">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="R21">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="S21">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -1868,7 +1863,7 @@
         </is>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -1877,7 +1872,7 @@
         <v>21</v>
       </c>
       <c r="F22">
-        <v>237</v>
+        <v>317</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1886,44 +1881,49 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>target</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>stimuli/img_bklr1.png</t>
+          <t>stimuli/img_24rt2.png</t>
         </is>
       </c>
       <c r="M22">
-        <v>86.54761904761905</v>
+        <v>55.26829268292683</v>
       </c>
       <c r="N22">
-        <v>67.73809523809524</v>
+        <v>34.19512195121951</v>
       </c>
       <c r="O22">
-        <v>77.14285714285714</v>
+        <v>44.73170731707317</v>
       </c>
       <c r="P22">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q22">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="R22">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="S22">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -1936,7 +1936,7 @@
         </is>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -1945,7 +1945,7 @@
         <v>22</v>
       </c>
       <c r="F23">
-        <v>238</v>
+        <v>318</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1974,20 +1974,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>stimuli/img_h0hbk.png</t>
+          <t>stimuli/img_ac0ey.png</t>
         </is>
       </c>
       <c r="M23">
-        <v>86.80952380952381</v>
+        <v>86.62222222222222</v>
       </c>
       <c r="N23">
-        <v>69.19047619047619</v>
+        <v>70.02222222222223</v>
       </c>
       <c r="O23">
-        <v>78</v>
+        <v>78.32222222222222</v>
       </c>
       <c r="P23">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="Q23">
         <v>9</v>
@@ -2009,7 +2009,7 @@
         </is>
       </c>
       <c r="C24">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -2018,7 +2018,7 @@
         <v>23</v>
       </c>
       <c r="F24">
-        <v>239</v>
+        <v>319</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -2027,35 +2027,40 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>target</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>stimuli/img_zv0dq.png</t>
+          <t>stimuli/img_ra2nm.png</t>
         </is>
       </c>
       <c r="M24">
-        <v>76.86842105263158</v>
+        <v>70.75</v>
       </c>
       <c r="N24">
-        <v>52.71052631578947</v>
+        <v>50.375</v>
       </c>
       <c r="O24">
-        <v>64.78947368421052</v>
+        <v>60.5625</v>
       </c>
       <c r="P24">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -2077,7 +2082,7 @@
         </is>
       </c>
       <c r="C25">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -2086,7 +2091,7 @@
         <v>24</v>
       </c>
       <c r="F25">
-        <v>240</v>
+        <v>320</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -2095,7 +2100,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2115,29 +2120,29 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>stimuli/img_5m6x4.png</t>
+          <t>stimuli/img_2qhro.png</t>
         </is>
       </c>
       <c r="M25">
-        <v>80.23076923076923</v>
+        <v>81.73809523809524</v>
       </c>
       <c r="N25">
-        <v>58.41025641025641</v>
+        <v>62.73809523809524</v>
       </c>
       <c r="O25">
-        <v>69.32051282051282</v>
+        <v>72.23809523809524</v>
       </c>
       <c r="P25">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Q25">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R25">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S25">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
@@ -2150,7 +2155,7 @@
         </is>
       </c>
       <c r="C26">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -2159,7 +2164,7 @@
         <v>25</v>
       </c>
       <c r="F26">
-        <v>241</v>
+        <v>321</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -2168,7 +2173,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2188,29 +2193,29 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>stimuli/img_ybbmx.png</t>
+          <t>stimuli/img_kq9s9.png</t>
         </is>
       </c>
       <c r="M26">
-        <v>55.24324324324324</v>
+        <v>62.30232558139535</v>
       </c>
       <c r="N26">
-        <v>36.75675675675676</v>
+        <v>39.97674418604651</v>
       </c>
       <c r="O26">
-        <v>46</v>
+        <v>51.13953488372093</v>
       </c>
       <c r="P26">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="Q26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S26">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
@@ -2223,7 +2228,7 @@
         </is>
       </c>
       <c r="C27">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -2232,7 +2237,7 @@
         <v>26</v>
       </c>
       <c r="F27">
-        <v>242</v>
+        <v>322</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -2241,7 +2246,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2261,29 +2266,29 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>stimuli/img_le8uf.png</t>
+          <t>stimuli/img_iudc4.png</t>
         </is>
       </c>
       <c r="M27">
-        <v>12.88888888888889</v>
+        <v>73.625</v>
       </c>
       <c r="N27">
-        <v>9.222222222222221</v>
+        <v>52.275</v>
       </c>
       <c r="O27">
-        <v>11.05555555555556</v>
+        <v>62.95</v>
       </c>
       <c r="P27">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Q27">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R27">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S27">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28">
@@ -2296,7 +2301,7 @@
         </is>
       </c>
       <c r="C28">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -2305,7 +2310,7 @@
         <v>27</v>
       </c>
       <c r="F28">
-        <v>243</v>
+        <v>323</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -2314,49 +2319,44 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>bedrooms</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>target</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>stimuli/img_71mhq.png</t>
+          <t>stimuli/img_lgxzn.png</t>
         </is>
       </c>
       <c r="M28">
-        <v>69.34210526315789</v>
+        <v>73.11363636363636</v>
       </c>
       <c r="N28">
-        <v>47.02631578947368</v>
+        <v>49.97727272727273</v>
       </c>
       <c r="O28">
-        <v>58.18421052631579</v>
+        <v>61.54545454545455</v>
       </c>
       <c r="P28">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="Q28">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R28">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S28">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">
@@ -2369,7 +2369,7 @@
         </is>
       </c>
       <c r="C29">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -2378,7 +2378,7 @@
         <v>28</v>
       </c>
       <c r="F29">
-        <v>244</v>
+        <v>324</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -2387,7 +2387,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2407,29 +2407,29 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>stimuli/img_t2ioc.png</t>
+          <t>stimuli/img_amsgw.png</t>
         </is>
       </c>
       <c r="M29">
-        <v>88.18918918918919</v>
+        <v>86.08510638297872</v>
       </c>
       <c r="N29">
-        <v>74.05405405405405</v>
+        <v>65.95744680851064</v>
       </c>
       <c r="O29">
-        <v>81.12162162162161</v>
+        <v>76.02127659574468</v>
       </c>
       <c r="P29">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="Q29">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R29">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S29">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/scene_cat_exp_2023.2/input_files/20_scenecat_memory_bedrooms_2.xlsx
+++ b/scene_cat_exp_2023.2/input_files/20_scenecat_memory_bedrooms_2.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S29"/>
+  <dimension ref="A1:S42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -464,7 +464,7 @@
         </is>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -473,7 +473,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -482,49 +482,44 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>living_rooms</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>target</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>stimuli/img_rych7.png</t>
+          <t>stimuli/img_2d3c2.png</t>
         </is>
       </c>
       <c r="M2">
-        <v>30.4468085106383</v>
+        <v>87.54545454545455</v>
       </c>
       <c r="N2">
-        <v>23.4468085106383</v>
+        <v>68.33333333333333</v>
       </c>
       <c r="O2">
-        <v>26.9468085106383</v>
+        <v>77.93939393939394</v>
       </c>
       <c r="P2">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="Q2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="R2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="S2">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -537,7 +532,7 @@
         </is>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -546,7 +541,7 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -555,44 +550,49 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>target</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>stimuli/img_7lz7m.png</t>
+          <t>stimuli/img_inqod.png</t>
         </is>
       </c>
       <c r="M3">
-        <v>51.5531914893617</v>
+        <v>70.84848484848484</v>
       </c>
       <c r="N3">
-        <v>32.87234042553192</v>
+        <v>50.63636363636363</v>
       </c>
       <c r="O3">
-        <v>42.21276595744681</v>
+        <v>60.74242424242424</v>
       </c>
       <c r="P3">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S3">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -605,7 +605,7 @@
         </is>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -614,7 +614,7 @@
         <v>3</v>
       </c>
       <c r="F4">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -623,7 +623,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -643,29 +643,29 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>stimuli/img_vgh2g.png</t>
+          <t>stimuli/img_aplao.png</t>
         </is>
       </c>
       <c r="M4">
-        <v>93.81395348837209</v>
+        <v>64.09090909090909</v>
       </c>
       <c r="N4">
-        <v>78.27906976744185</v>
+        <v>40.75757575757576</v>
       </c>
       <c r="O4">
-        <v>86.04651162790697</v>
+        <v>52.42424242424242</v>
       </c>
       <c r="P4">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="Q4">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="R4">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="S4">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -678,7 +678,7 @@
         </is>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -687,7 +687,7 @@
         <v>4</v>
       </c>
       <c r="F5">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -696,44 +696,49 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>target</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>stimuli/img_3jnt7.png</t>
+          <t>stimuli/img_iyxnj.png</t>
         </is>
       </c>
       <c r="M5">
-        <v>49.52272727272727</v>
+        <v>75.30555555555556</v>
       </c>
       <c r="N5">
-        <v>35.25</v>
+        <v>54.33333333333334</v>
       </c>
       <c r="O5">
-        <v>42.38636363636364</v>
+        <v>64.81944444444444</v>
       </c>
       <c r="P5">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S5">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -746,7 +751,7 @@
         </is>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -755,7 +760,7 @@
         <v>5</v>
       </c>
       <c r="F6">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -764,49 +769,44 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>living_rooms</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>target</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>stimuli/img_syam3.png</t>
+          <t>stimuli/img_qmgwq.png</t>
         </is>
       </c>
       <c r="M6">
-        <v>41.32432432432432</v>
+        <v>84.58333333333333</v>
       </c>
       <c r="N6">
-        <v>26.2972972972973</v>
+        <v>64.44444444444444</v>
       </c>
       <c r="O6">
-        <v>33.81081081081081</v>
+        <v>74.51388888888889</v>
       </c>
       <c r="P6">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="R6">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="S6">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -819,7 +819,7 @@
         </is>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -828,7 +828,7 @@
         <v>6</v>
       </c>
       <c r="F7">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -837,49 +837,44 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>living_rooms</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>target</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>stimuli/img_of8d6.png</t>
+          <t>stimuli/img_89rmb.png</t>
         </is>
       </c>
       <c r="M7">
-        <v>26.04878048780488</v>
+        <v>55.18518518518518</v>
       </c>
       <c r="N7">
-        <v>19.14634146341463</v>
+        <v>29.25925925925926</v>
       </c>
       <c r="O7">
-        <v>22.59756097560975</v>
+        <v>42.22222222222222</v>
       </c>
       <c r="P7">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -892,7 +887,7 @@
         </is>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -901,7 +896,7 @@
         <v>7</v>
       </c>
       <c r="F8">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -910,7 +905,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -925,29 +920,29 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>stimuli/img_bf8nx.png</t>
+          <t>stimuli/img_wppku.png</t>
         </is>
       </c>
       <c r="M8">
-        <v>86.63414634146342</v>
+        <v>75.02941176470588</v>
       </c>
       <c r="N8">
-        <v>66.63414634146342</v>
+        <v>53.05882352941177</v>
       </c>
       <c r="O8">
-        <v>76.63414634146342</v>
+        <v>64.04411764705883</v>
       </c>
       <c r="P8">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Q8">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="R8">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="S8">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -960,7 +955,7 @@
         </is>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -969,7 +964,7 @@
         <v>8</v>
       </c>
       <c r="F9">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -978,49 +973,44 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>living_rooms</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>target</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>stimuli/img_j4ttn.png</t>
+          <t>stimuli/img_mucwi.png</t>
         </is>
       </c>
       <c r="M9">
-        <v>12.61904761904762</v>
+        <v>71.14814814814815</v>
       </c>
       <c r="N9">
-        <v>11.42857142857143</v>
+        <v>48.55555555555556</v>
       </c>
       <c r="O9">
-        <v>12.02380952380952</v>
+        <v>59.85185185185185</v>
       </c>
       <c r="P9">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S9">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1033,7 +1023,7 @@
         </is>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -1042,7 +1032,7 @@
         <v>9</v>
       </c>
       <c r="F10">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1051,7 +1041,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1071,29 +1061,29 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>stimuli/img_xr3up.png</t>
+          <t>stimuli/img_7wul8.png</t>
         </is>
       </c>
       <c r="M10">
-        <v>76.24444444444444</v>
+        <v>43.03030303030303</v>
       </c>
       <c r="N10">
-        <v>55.88888888888889</v>
+        <v>25.54545454545455</v>
       </c>
       <c r="O10">
-        <v>66.06666666666666</v>
+        <v>34.28787878787879</v>
       </c>
       <c r="P10">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="Q10">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="R10">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="S10">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -1106,7 +1096,7 @@
         </is>
       </c>
       <c r="C11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -1115,7 +1105,7 @@
         <v>10</v>
       </c>
       <c r="F11">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1124,49 +1114,44 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>living_rooms</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>target</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>stimuli/img_rru0v.png</t>
+          <t>stimuli/img_esb4r.png</t>
         </is>
       </c>
       <c r="M11">
-        <v>56.45238095238095</v>
+        <v>60.73529411764706</v>
       </c>
       <c r="N11">
-        <v>39.42857142857143</v>
+        <v>38.58823529411764</v>
       </c>
       <c r="O11">
-        <v>47.94047619047619</v>
+        <v>49.66176470588235</v>
       </c>
       <c r="P11">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S11">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -1179,7 +1164,7 @@
         </is>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -1188,16 +1173,21 @@
         <v>11</v>
       </c>
       <c r="F12">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
           <t>bedrooms</t>
         </is>
       </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>kitchens</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>catch</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1207,8 +1197,29 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>stimuli/catch_17.jpg</t>
-        </is>
+          <t>stimuli/img_7ed9m.png</t>
+        </is>
+      </c>
+      <c r="M12">
+        <v>80.71875</v>
+      </c>
+      <c r="N12">
+        <v>58.65625</v>
+      </c>
+      <c r="O12">
+        <v>69.6875</v>
+      </c>
+      <c r="P12">
+        <v>32</v>
+      </c>
+      <c r="Q12">
+        <v>8</v>
+      </c>
+      <c r="R12">
+        <v>8</v>
+      </c>
+      <c r="S12">
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -1221,7 +1232,7 @@
         </is>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -1230,7 +1241,7 @@
         <v>12</v>
       </c>
       <c r="F13">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1239,40 +1250,35 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>living_rooms</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>target</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>stimuli/img_vh7v8.png</t>
+          <t>stimuli/img_0mhms.png</t>
         </is>
       </c>
       <c r="M13">
-        <v>78.70454545454545</v>
+        <v>78</v>
       </c>
       <c r="N13">
-        <v>59.63636363636363</v>
+        <v>55.68571428571428</v>
       </c>
       <c r="O13">
-        <v>69.17045454545455</v>
+        <v>66.84285714285714</v>
       </c>
       <c r="P13">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="Q13">
         <v>7</v>
@@ -1294,7 +1300,7 @@
         </is>
       </c>
       <c r="C14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -1303,7 +1309,7 @@
         <v>13</v>
       </c>
       <c r="F14">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1312,7 +1318,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1332,29 +1338,29 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>stimuli/img_9oofc.png</t>
+          <t>stimuli/img_ye5sl.png</t>
         </is>
       </c>
       <c r="M14">
-        <v>82.47619047619048</v>
+        <v>53.2258064516129</v>
       </c>
       <c r="N14">
-        <v>65.5</v>
+        <v>34.45161290322581</v>
       </c>
       <c r="O14">
-        <v>73.98809523809524</v>
+        <v>43.83870967741936</v>
       </c>
       <c r="P14">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="Q14">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="R14">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S14">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -1367,7 +1373,7 @@
         </is>
       </c>
       <c r="C15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -1376,7 +1382,7 @@
         <v>14</v>
       </c>
       <c r="F15">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1385,7 +1391,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1400,29 +1406,29 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>stimuli/img_pna7l.png</t>
+          <t>stimuli/img_xdhz2.png</t>
         </is>
       </c>
       <c r="M15">
-        <v>85.53333333333333</v>
+        <v>63.3</v>
       </c>
       <c r="N15">
-        <v>67.97777777777777</v>
+        <v>37.25</v>
       </c>
       <c r="O15">
-        <v>76.75555555555556</v>
+        <v>50.275</v>
       </c>
       <c r="P15">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Q15">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="R15">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="S15">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -1435,7 +1441,7 @@
         </is>
       </c>
       <c r="C16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -1444,7 +1450,7 @@
         <v>15</v>
       </c>
       <c r="F16">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1453,7 +1459,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1473,29 +1479,29 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>stimuli/img_tn8ys.png</t>
+          <t>stimuli/img_es7o2.png</t>
         </is>
       </c>
       <c r="M16">
-        <v>86.70454545454545</v>
+        <v>52.48571428571429</v>
       </c>
       <c r="N16">
-        <v>72.40909090909091</v>
+        <v>27.54285714285714</v>
       </c>
       <c r="O16">
-        <v>79.55681818181819</v>
+        <v>40.01428571428572</v>
       </c>
       <c r="P16">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="Q16">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="R16">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="S16">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -1508,7 +1514,7 @@
         </is>
       </c>
       <c r="C17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -1517,7 +1523,7 @@
         <v>16</v>
       </c>
       <c r="F17">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1526,49 +1532,44 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>living_rooms</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>target</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>stimuli/img_rg4in.png</t>
+          <t>stimuli/img_lszzj.png</t>
         </is>
       </c>
       <c r="M17">
-        <v>49.3695652173913</v>
+        <v>64.70588235294117</v>
       </c>
       <c r="N17">
-        <v>30.21739130434782</v>
+        <v>45.58823529411764</v>
       </c>
       <c r="O17">
-        <v>39.79347826086956</v>
+        <v>55.14705882352941</v>
       </c>
       <c r="P17">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="Q17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S17">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -1581,7 +1582,7 @@
         </is>
       </c>
       <c r="C18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -1590,7 +1591,7 @@
         <v>17</v>
       </c>
       <c r="F18">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1599,7 +1600,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1619,29 +1620,29 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>stimuli/img_swq34.png</t>
+          <t>stimuli/img_eatdk.png</t>
         </is>
       </c>
       <c r="M18">
-        <v>64.11363636363636</v>
+        <v>81.40625</v>
       </c>
       <c r="N18">
-        <v>43.04545454545455</v>
+        <v>61.375</v>
       </c>
       <c r="O18">
-        <v>53.57954545454545</v>
+        <v>71.390625</v>
       </c>
       <c r="P18">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="Q18">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="R18">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="S18">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -1654,7 +1655,7 @@
         </is>
       </c>
       <c r="C19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -1663,7 +1664,7 @@
         <v>18</v>
       </c>
       <c r="F19">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1672,7 +1673,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1692,29 +1693,29 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>stimuli/img_zxvl3.png</t>
+          <t>stimuli/img_d8xbu.png</t>
         </is>
       </c>
       <c r="M19">
-        <v>68.78260869565217</v>
+        <v>91.36363636363636</v>
       </c>
       <c r="N19">
-        <v>47.56521739130435</v>
+        <v>73.18181818181819</v>
       </c>
       <c r="O19">
-        <v>58.17391304347827</v>
+        <v>82.27272727272728</v>
       </c>
       <c r="P19">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="Q19">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R19">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S19">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -1727,7 +1728,7 @@
         </is>
       </c>
       <c r="C20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -1736,7 +1737,7 @@
         <v>19</v>
       </c>
       <c r="F20">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1745,44 +1746,49 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>target</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>stimuli/img_pdzf1.png</t>
+          <t>stimuli/img_uwv6y.png</t>
         </is>
       </c>
       <c r="M20">
-        <v>86.23913043478261</v>
+        <v>78.88888888888889</v>
       </c>
       <c r="N20">
-        <v>67.17391304347827</v>
+        <v>59.30555555555556</v>
       </c>
       <c r="O20">
-        <v>76.70652173913044</v>
+        <v>69.09722222222223</v>
       </c>
       <c r="P20">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="Q20">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R20">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S20">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -1795,7 +1801,7 @@
         </is>
       </c>
       <c r="C21">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -1804,7 +1810,7 @@
         <v>20</v>
       </c>
       <c r="F21">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1813,7 +1819,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1828,29 +1834,29 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>stimuli/img_qdln8.png</t>
+          <t>stimuli/img_7ucnr.png</t>
         </is>
       </c>
       <c r="M21">
-        <v>85.51162790697674</v>
+        <v>70.39393939393939</v>
       </c>
       <c r="N21">
-        <v>67.86046511627907</v>
+        <v>47.90909090909091</v>
       </c>
       <c r="O21">
-        <v>76.68604651162791</v>
+        <v>59.15151515151515</v>
       </c>
       <c r="P21">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="Q21">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="R21">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="S21">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -1863,7 +1869,7 @@
         </is>
       </c>
       <c r="C22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -1872,7 +1878,7 @@
         <v>21</v>
       </c>
       <c r="F22">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1881,49 +1887,44 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>living_rooms</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>target</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>stimuli/img_24rt2.png</t>
+          <t>stimuli/img_ikk62.png</t>
         </is>
       </c>
       <c r="M22">
-        <v>55.26829268292683</v>
+        <v>37.48780487804878</v>
       </c>
       <c r="N22">
-        <v>34.19512195121951</v>
+        <v>21.07317073170732</v>
       </c>
       <c r="O22">
-        <v>44.73170731707317</v>
+        <v>29.28048780487805</v>
       </c>
       <c r="P22">
         <v>41</v>
       </c>
       <c r="Q22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S22">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1936,7 +1937,7 @@
         </is>
       </c>
       <c r="C23">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -1945,7 +1946,7 @@
         <v>22</v>
       </c>
       <c r="F23">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1954,7 +1955,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1974,29 +1975,29 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>stimuli/img_ac0ey.png</t>
+          <t>stimuli/img_wyl6z.png</t>
         </is>
       </c>
       <c r="M23">
-        <v>86.62222222222222</v>
+        <v>59.8235294117647</v>
       </c>
       <c r="N23">
-        <v>70.02222222222223</v>
+        <v>36.23529411764706</v>
       </c>
       <c r="O23">
-        <v>78.32222222222222</v>
+        <v>48.02941176470588</v>
       </c>
       <c r="P23">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="Q23">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="R23">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="S23">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -2009,7 +2010,7 @@
         </is>
       </c>
       <c r="C24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -2018,7 +2019,7 @@
         <v>23</v>
       </c>
       <c r="F24">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -2027,49 +2028,44 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>living_rooms</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>target</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>stimuli/img_ra2nm.png</t>
+          <t>stimuli/img_kwxq1.png</t>
         </is>
       </c>
       <c r="M24">
-        <v>70.75</v>
+        <v>68.53125</v>
       </c>
       <c r="N24">
-        <v>50.375</v>
+        <v>44.09375</v>
       </c>
       <c r="O24">
-        <v>60.5625</v>
+        <v>56.3125</v>
       </c>
       <c r="P24">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="Q24">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R24">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S24">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
@@ -2082,7 +2078,7 @@
         </is>
       </c>
       <c r="C25">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -2091,7 +2087,7 @@
         <v>24</v>
       </c>
       <c r="F25">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -2100,7 +2096,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2120,29 +2116,29 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>stimuli/img_2qhro.png</t>
+          <t>stimuli/img_nyv2b.png</t>
         </is>
       </c>
       <c r="M25">
-        <v>81.73809523809524</v>
+        <v>11.91176470588235</v>
       </c>
       <c r="N25">
-        <v>62.73809523809524</v>
+        <v>6.852941176470588</v>
       </c>
       <c r="O25">
-        <v>72.23809523809524</v>
+        <v>9.382352941176471</v>
       </c>
       <c r="P25">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="Q25">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="R25">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="S25">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -2155,7 +2151,7 @@
         </is>
       </c>
       <c r="C26">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -2164,7 +2160,7 @@
         <v>25</v>
       </c>
       <c r="F26">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -2173,7 +2169,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2193,20 +2189,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>stimuli/img_kq9s9.png</t>
+          <t>stimuli/img_cv6mf.png</t>
         </is>
       </c>
       <c r="M26">
-        <v>62.30232558139535</v>
+        <v>66.8</v>
       </c>
       <c r="N26">
-        <v>39.97674418604651</v>
+        <v>42.08</v>
       </c>
       <c r="O26">
-        <v>51.13953488372093</v>
+        <v>54.44</v>
       </c>
       <c r="P26">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -2228,7 +2224,7 @@
         </is>
       </c>
       <c r="C27">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -2237,7 +2233,7 @@
         <v>26</v>
       </c>
       <c r="F27">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -2246,7 +2242,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2266,29 +2262,29 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>stimuli/img_iudc4.png</t>
+          <t>stimuli/img_ce9vx.png</t>
         </is>
       </c>
       <c r="M27">
-        <v>73.625</v>
+        <v>75.90909090909091</v>
       </c>
       <c r="N27">
-        <v>52.275</v>
+        <v>57.12121212121212</v>
       </c>
       <c r="O27">
-        <v>62.95</v>
+        <v>66.51515151515152</v>
       </c>
       <c r="P27">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="Q27">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R27">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S27">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28">
@@ -2301,7 +2297,7 @@
         </is>
       </c>
       <c r="C28">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -2310,21 +2306,16 @@
         <v>27</v>
       </c>
       <c r="F28">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
           <t>bedrooms</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>living_rooms</t>
-        </is>
-      </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>catch</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2334,29 +2325,8 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>stimuli/img_lgxzn.png</t>
-        </is>
-      </c>
-      <c r="M28">
-        <v>73.11363636363636</v>
-      </c>
-      <c r="N28">
-        <v>49.97727272727273</v>
-      </c>
-      <c r="O28">
-        <v>61.54545454545455</v>
-      </c>
-      <c r="P28">
-        <v>44</v>
-      </c>
-      <c r="Q28">
-        <v>6</v>
-      </c>
-      <c r="R28">
-        <v>6</v>
-      </c>
-      <c r="S28">
-        <v>6</v>
+          <t>stimuli/catch_04.jpg</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -2369,7 +2339,7 @@
         </is>
       </c>
       <c r="C29">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -2378,58 +2348,972 @@
         <v>28</v>
       </c>
       <c r="F29">
+        <v>322</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>bedrooms</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>kitchens</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>stimuli/img_c30d1.png</t>
+        </is>
+      </c>
+      <c r="M29">
+        <v>78.875</v>
+      </c>
+      <c r="N29">
+        <v>60.34375</v>
+      </c>
+      <c r="O29">
+        <v>69.609375</v>
+      </c>
+      <c r="P29">
+        <v>32</v>
+      </c>
+      <c r="Q29">
+        <v>8</v>
+      </c>
+      <c r="R29">
+        <v>8</v>
+      </c>
+      <c r="S29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>20</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C30">
+        <v>5</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>29</v>
+      </c>
+      <c r="F30">
+        <v>323</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>bedrooms</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>kitchens</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>old</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>stimuli/img_9mky8.png</t>
+        </is>
+      </c>
+      <c r="M30">
+        <v>84.32352941176471</v>
+      </c>
+      <c r="N30">
+        <v>65.17647058823529</v>
+      </c>
+      <c r="O30">
+        <v>74.75</v>
+      </c>
+      <c r="P30">
+        <v>34</v>
+      </c>
+      <c r="Q30">
+        <v>9</v>
+      </c>
+      <c r="R30">
+        <v>9</v>
+      </c>
+      <c r="S30">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>20</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C31">
+        <v>5</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>30</v>
+      </c>
+      <c r="F31">
         <v>324</v>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>bedrooms</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>living_rooms</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>bedrooms</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>kitchens</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>stimuli/img_1ao2d.png</t>
+        </is>
+      </c>
+      <c r="M31">
+        <v>38.77777777777778</v>
+      </c>
+      <c r="N31">
+        <v>18.75</v>
+      </c>
+      <c r="O31">
+        <v>28.76388888888889</v>
+      </c>
+      <c r="P31">
+        <v>36</v>
+      </c>
+      <c r="Q31">
+        <v>1</v>
+      </c>
+      <c r="R31">
+        <v>1</v>
+      </c>
+      <c r="S31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>20</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C32">
+        <v>5</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>31</v>
+      </c>
+      <c r="F32">
+        <v>325</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>bedrooms</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>kitchens</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
         <is>
           <t>target</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>old</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>j</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>stimuli/img_amsgw.png</t>
-        </is>
-      </c>
-      <c r="M29">
-        <v>86.08510638297872</v>
-      </c>
-      <c r="N29">
-        <v>65.95744680851064</v>
-      </c>
-      <c r="O29">
-        <v>76.02127659574468</v>
-      </c>
-      <c r="P29">
-        <v>47</v>
-      </c>
-      <c r="Q29">
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>stimuli/img_a8wvq.png</t>
+        </is>
+      </c>
+      <c r="M32">
+        <v>86.25925925925925</v>
+      </c>
+      <c r="N32">
+        <v>66.25925925925925</v>
+      </c>
+      <c r="O32">
+        <v>76.25925925925925</v>
+      </c>
+      <c r="P32">
+        <v>27</v>
+      </c>
+      <c r="Q32">
+        <v>10</v>
+      </c>
+      <c r="R32">
+        <v>10</v>
+      </c>
+      <c r="S32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>20</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C33">
+        <v>5</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>32</v>
+      </c>
+      <c r="F33">
+        <v>326</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>bedrooms</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>kitchens</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>stimuli/img_7w5tw.png</t>
+        </is>
+      </c>
+      <c r="M33">
+        <v>53.2258064516129</v>
+      </c>
+      <c r="N33">
+        <v>28.90322580645161</v>
+      </c>
+      <c r="O33">
+        <v>41.06451612903226</v>
+      </c>
+      <c r="P33">
+        <v>31</v>
+      </c>
+      <c r="Q33">
+        <v>2</v>
+      </c>
+      <c r="R33">
+        <v>2</v>
+      </c>
+      <c r="S33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>20</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>33</v>
+      </c>
+      <c r="F34">
+        <v>327</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>bedrooms</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>kitchens</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>stimuli/img_e0hwx.png</t>
+        </is>
+      </c>
+      <c r="M34">
+        <v>78.12121212121212</v>
+      </c>
+      <c r="N34">
+        <v>55.36363636363637</v>
+      </c>
+      <c r="O34">
+        <v>66.74242424242425</v>
+      </c>
+      <c r="P34">
+        <v>33</v>
+      </c>
+      <c r="Q34">
+        <v>7</v>
+      </c>
+      <c r="R34">
+        <v>7</v>
+      </c>
+      <c r="S34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>20</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C35">
+        <v>5</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>34</v>
+      </c>
+      <c r="F35">
+        <v>328</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>bedrooms</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>kitchens</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>old</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>stimuli/img_yeh72.png</t>
+        </is>
+      </c>
+      <c r="M35">
+        <v>68.66666666666667</v>
+      </c>
+      <c r="N35">
+        <v>45.21212121212121</v>
+      </c>
+      <c r="O35">
+        <v>56.93939393939394</v>
+      </c>
+      <c r="P35">
+        <v>33</v>
+      </c>
+      <c r="Q35">
+        <v>4</v>
+      </c>
+      <c r="R35">
+        <v>4</v>
+      </c>
+      <c r="S35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>20</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C36">
+        <v>5</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>35</v>
+      </c>
+      <c r="F36">
+        <v>329</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>bedrooms</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>kitchens</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>old</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>stimuli/img_79b5l.png</t>
+        </is>
+      </c>
+      <c r="M36">
+        <v>72.74285714285715</v>
+      </c>
+      <c r="N36">
+        <v>53.31428571428572</v>
+      </c>
+      <c r="O36">
+        <v>63.02857142857143</v>
+      </c>
+      <c r="P36">
+        <v>35</v>
+      </c>
+      <c r="Q36">
+        <v>6</v>
+      </c>
+      <c r="R36">
+        <v>6</v>
+      </c>
+      <c r="S36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>20</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C37">
+        <v>5</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>36</v>
+      </c>
+      <c r="F37">
+        <v>330</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>bedrooms</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>kitchens</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>stimuli/img_mawe6.png</t>
+        </is>
+      </c>
+      <c r="M37">
+        <v>83.48387096774194</v>
+      </c>
+      <c r="N37">
+        <v>65.54838709677419</v>
+      </c>
+      <c r="O37">
+        <v>74.51612903225806</v>
+      </c>
+      <c r="P37">
+        <v>31</v>
+      </c>
+      <c r="Q37">
         <v>9</v>
       </c>
-      <c r="R29">
+      <c r="R37">
         <v>9</v>
       </c>
-      <c r="S29">
+      <c r="S37">
         <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>20</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C38">
+        <v>5</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>37</v>
+      </c>
+      <c r="F38">
+        <v>331</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>bedrooms</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>kitchens</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>old</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>stimuli/img_60242.png</t>
+        </is>
+      </c>
+      <c r="M38">
+        <v>78.33333333333333</v>
+      </c>
+      <c r="N38">
+        <v>57.57575757575758</v>
+      </c>
+      <c r="O38">
+        <v>67.95454545454545</v>
+      </c>
+      <c r="P38">
+        <v>33</v>
+      </c>
+      <c r="Q38">
+        <v>7</v>
+      </c>
+      <c r="R38">
+        <v>7</v>
+      </c>
+      <c r="S38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>20</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C39">
+        <v>5</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>38</v>
+      </c>
+      <c r="F39">
+        <v>332</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>bedrooms</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>kitchens</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>stimuli/img_lpj57.png</t>
+        </is>
+      </c>
+      <c r="M39">
+        <v>74.77777777777777</v>
+      </c>
+      <c r="N39">
+        <v>54.44444444444444</v>
+      </c>
+      <c r="O39">
+        <v>64.61111111111111</v>
+      </c>
+      <c r="P39">
+        <v>27</v>
+      </c>
+      <c r="Q39">
+        <v>6</v>
+      </c>
+      <c r="R39">
+        <v>6</v>
+      </c>
+      <c r="S39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>20</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C40">
+        <v>5</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>39</v>
+      </c>
+      <c r="F40">
+        <v>333</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>bedrooms</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>kitchens</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>old</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>stimuli/img_t90e2.png</t>
+        </is>
+      </c>
+      <c r="M40">
+        <v>83.0625</v>
+      </c>
+      <c r="N40">
+        <v>61.96875</v>
+      </c>
+      <c r="O40">
+        <v>72.515625</v>
+      </c>
+      <c r="P40">
+        <v>32</v>
+      </c>
+      <c r="Q40">
+        <v>9</v>
+      </c>
+      <c r="R40">
+        <v>9</v>
+      </c>
+      <c r="S40">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>20</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C41">
+        <v>5</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>40</v>
+      </c>
+      <c r="F41">
+        <v>334</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>bedrooms</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>kitchens</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>stimuli/img_3v5w3.png</t>
+        </is>
+      </c>
+      <c r="M41">
+        <v>88.90625</v>
+      </c>
+      <c r="N41">
+        <v>68.15625</v>
+      </c>
+      <c r="O41">
+        <v>78.53125</v>
+      </c>
+      <c r="P41">
+        <v>32</v>
+      </c>
+      <c r="Q41">
+        <v>10</v>
+      </c>
+      <c r="R41">
+        <v>10</v>
+      </c>
+      <c r="S41">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>20</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C42">
+        <v>5</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>41</v>
+      </c>
+      <c r="F42">
+        <v>335</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>bedrooms</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>kitchens</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>old</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>stimuli/img_q1ynd.png</t>
+        </is>
+      </c>
+      <c r="M42">
+        <v>70.05714285714286</v>
+      </c>
+      <c r="N42">
+        <v>47.31428571428572</v>
+      </c>
+      <c r="O42">
+        <v>58.68571428571429</v>
+      </c>
+      <c r="P42">
+        <v>35</v>
+      </c>
+      <c r="Q42">
+        <v>5</v>
+      </c>
+      <c r="R42">
+        <v>5</v>
+      </c>
+      <c r="S42">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
